--- a/TecheartSolution/Test/bin/Debug/test.xlsx
+++ b/TecheartSolution/Test/bin/Debug/test.xlsx
@@ -9,21 +9,30 @@
   <sheets>
     <sheet name="统计图" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>成绩</t>
   </si>
   <si>
     <t>总数量</t>
+  </si>
+  <si>
+    <t>90分</t>
+  </si>
+  <si>
+    <t>70分</t>
+  </si>
+  <si>
+    <t>60分</t>
+  </si>
+  <si>
+    <t>0分</t>
   </si>
 </sst>
 </file>
@@ -196,39 +205,103 @@
       </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:backWall/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'[1]'!$A$1:$A$4</c:f>
-              <c:numCache/>
-            </c:numRef>
+            <c:strRef>
+              <c:f>统计图!$A$2:$A$5</c:f>
+              <c:strCache/>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]Sheet1'!$B$1:$B$4</c:f>
+              <c:f>统计图!$B$2</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
+          <c:shape val="box"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>统计图!$A$2:$A$5</c:f>
+              <c:strCache/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>统计图!$B$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:shape val="box"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>统计图!$A$2:$A$5</c:f>
+              <c:strCache/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>统计图!$B$4</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:shape val="box"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>统计图!$A$2:$A$5</c:f>
+              <c:strCache/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>统计图!$B$5</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:shape val="box"/>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:shape val="box"/>
         <c:axId val="63208015"/>
         <c:axId val="32001227"/>
-      </c:barChart>
+      </c:bar3DChart>
       <c:catAx>
         <c:axId val="63208015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -244,7 +317,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln/>
@@ -285,7 +358,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -302,8 +375,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="609600" y="161925"/>
-        <a:ext cx="5486400" cy="3886200"/>
+        <a:off x="1219200" y="161925"/>
+        <a:ext cx="4876800" cy="3886200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -314,16 +387,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,35 +701,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2">
-        <v>90</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
-      <c r="A3">
-        <v>70</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75">
-      <c r="A4">
-        <v>60</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75">
-      <c r="A5">
-        <v>0</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/TecheartSolution/Test/bin/Debug/test.xlsx
+++ b/TecheartSolution/Test/bin/Debug/test.xlsx
@@ -230,61 +230,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>统计图!$B$2</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:shape val="box"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>统计图!$A$2:$A$5</c:f>
-              <c:strCache/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>统计图!$B$3</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:shape val="box"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>统计图!$A$2:$A$5</c:f>
-              <c:strCache/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>统计图!$B$4</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:shape val="box"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>统计图!$A$2:$A$5</c:f>
-              <c:strCache/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>统计图!$B$5</c:f>
+              <c:f>统计图!$B$2:$B$5</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -705,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
@@ -713,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75">
@@ -721,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75">
@@ -729,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
